--- a/Code/Results/Cases/Case_5_145/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_145/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005868436103729</v>
+        <v>1.056748553031213</v>
       </c>
       <c r="D2">
-        <v>1.02148290977885</v>
+        <v>1.054271244083026</v>
       </c>
       <c r="E2">
-        <v>1.018892171457462</v>
+        <v>1.062098227298203</v>
       </c>
       <c r="F2">
-        <v>1.025539616726788</v>
+        <v>1.07078119812752</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043859990703646</v>
+        <v>1.041198566114515</v>
       </c>
       <c r="J2">
-        <v>1.027875028893313</v>
+        <v>1.061748569773783</v>
       </c>
       <c r="K2">
-        <v>1.032650851726726</v>
+        <v>1.057014914388477</v>
       </c>
       <c r="L2">
-        <v>1.030094436051907</v>
+        <v>1.064820496232768</v>
       </c>
       <c r="M2">
-        <v>1.036654251060445</v>
+        <v>1.073480121093358</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014143372030929</v>
+        <v>1.058371590284791</v>
       </c>
       <c r="D3">
-        <v>1.027763268246126</v>
+        <v>1.055503062703236</v>
       </c>
       <c r="E3">
-        <v>1.026034966323857</v>
+        <v>1.063544809407952</v>
       </c>
       <c r="F3">
-        <v>1.033065188697834</v>
+        <v>1.072313733926124</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046287981890603</v>
+        <v>1.041579471626974</v>
       </c>
       <c r="J3">
-        <v>1.034255761991826</v>
+        <v>1.063020560694667</v>
       </c>
       <c r="K3">
-        <v>1.038052821499722</v>
+        <v>1.058058873017663</v>
       </c>
       <c r="L3">
-        <v>1.036345219125847</v>
+        <v>1.066080238859819</v>
       </c>
       <c r="M3">
-        <v>1.043291777059268</v>
+        <v>1.074827314628468</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019326212007096</v>
+        <v>1.059419962158909</v>
       </c>
       <c r="D4">
-        <v>1.031698591475281</v>
+        <v>1.056298266789985</v>
       </c>
       <c r="E4">
-        <v>1.030514944833464</v>
+        <v>1.064479359051929</v>
       </c>
       <c r="F4">
-        <v>1.037786264937222</v>
+        <v>1.073303973633466</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047795451855351</v>
+        <v>1.041823749525428</v>
       </c>
       <c r="J4">
-        <v>1.038248146067285</v>
+        <v>1.063841422877486</v>
       </c>
       <c r="K4">
-        <v>1.041428922247098</v>
+        <v>1.058731960273043</v>
       </c>
       <c r="L4">
-        <v>1.040258519193359</v>
+        <v>1.066893373492231</v>
       </c>
       <c r="M4">
-        <v>1.047449068477464</v>
+        <v>1.07569712201977</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02146650119102</v>
+        <v>1.059860266817199</v>
       </c>
       <c r="D5">
-        <v>1.033323993394545</v>
+        <v>1.056632130791777</v>
       </c>
       <c r="E5">
-        <v>1.032366368542112</v>
+        <v>1.064871896053509</v>
       </c>
       <c r="F5">
-        <v>1.03973757455278</v>
+        <v>1.073719940487427</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048414716503023</v>
+        <v>1.041925921480718</v>
       </c>
       <c r="J5">
-        <v>1.039895774106376</v>
+        <v>1.064185994068419</v>
       </c>
       <c r="K5">
-        <v>1.042821251350176</v>
+        <v>1.059014352150663</v>
       </c>
       <c r="L5">
-        <v>1.041874031318006</v>
+        <v>1.067234743140964</v>
       </c>
       <c r="M5">
-        <v>1.049165752605812</v>
+        <v>1.076062337903094</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021823671528144</v>
+        <v>1.059934170930517</v>
       </c>
       <c r="D6">
-        <v>1.033595252518268</v>
+        <v>1.05668816242983</v>
       </c>
       <c r="E6">
-        <v>1.032675411667417</v>
+        <v>1.064937784587705</v>
       </c>
       <c r="F6">
-        <v>1.040063305539374</v>
+        <v>1.073789764050707</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048517865471505</v>
+        <v>1.04194304603983</v>
       </c>
       <c r="J6">
-        <v>1.04017066517919</v>
+        <v>1.064243818858654</v>
       </c>
       <c r="K6">
-        <v>1.043053490632062</v>
+        <v>1.05906173351047</v>
       </c>
       <c r="L6">
-        <v>1.042143594497474</v>
+        <v>1.067292033133768</v>
       </c>
       <c r="M6">
-        <v>1.049452223433415</v>
+        <v>1.076123633026364</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019354959097341</v>
+        <v>1.059425847210402</v>
       </c>
       <c r="D7">
-        <v>1.031720421956574</v>
+        <v>1.056302729615854</v>
       </c>
       <c r="E7">
-        <v>1.030539806704428</v>
+        <v>1.064484605505458</v>
       </c>
       <c r="F7">
-        <v>1.037812467139346</v>
+        <v>1.073309533087467</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047803782436836</v>
+        <v>1.041825116801328</v>
       </c>
       <c r="J7">
-        <v>1.038270280302611</v>
+        <v>1.063846029084298</v>
       </c>
       <c r="K7">
-        <v>1.041447630654271</v>
+        <v>1.058735735853815</v>
       </c>
       <c r="L7">
-        <v>1.040280219933272</v>
+        <v>1.066897936735087</v>
       </c>
       <c r="M7">
-        <v>1.047472126470721</v>
+        <v>1.075702003814111</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008702103256577</v>
+        <v>1.05729745348192</v>
       </c>
       <c r="D8">
-        <v>1.023633097772676</v>
+        <v>1.054687933129256</v>
       </c>
       <c r="E8">
-        <v>1.0213367603815</v>
+        <v>1.062587418960485</v>
       </c>
       <c r="F8">
-        <v>1.028114996568269</v>
+        <v>1.071299423544587</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044694185489087</v>
+        <v>1.041327750677337</v>
       </c>
       <c r="J8">
-        <v>1.030060852605909</v>
+        <v>1.062178905413879</v>
       </c>
       <c r="K8">
-        <v>1.034502183552173</v>
+        <v>1.057368230733854</v>
       </c>
       <c r="L8">
-        <v>1.032235264507695</v>
+        <v>1.065246651367257</v>
       </c>
       <c r="M8">
-        <v>1.038927137284159</v>
+        <v>1.073935813056145</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.988489730501351</v>
+        <v>1.053532394482878</v>
       </c>
       <c r="D9">
-        <v>1.008309898249798</v>
+        <v>1.051827871752655</v>
       </c>
       <c r="E9">
-        <v>1.003931934096343</v>
+        <v>1.059232594492013</v>
       </c>
       <c r="F9">
-        <v>1.009783222855636</v>
+        <v>1.067746147879224</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038689734472694</v>
+        <v>1.040434409813154</v>
       </c>
       <c r="J9">
-        <v>1.014455597628722</v>
+        <v>1.05922401904455</v>
       </c>
       <c r="K9">
-        <v>1.021269576689054</v>
+        <v>1.054939666980677</v>
       </c>
       <c r="L9">
-        <v>1.016961538906768</v>
+        <v>1.062321201661764</v>
       </c>
       <c r="M9">
-        <v>1.022719543459947</v>
+        <v>1.070808528432474</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9738432535395245</v>
+        <v>1.051011933803925</v>
       </c>
       <c r="D10">
-        <v>0.9972324241589062</v>
+        <v>1.049910935958148</v>
       </c>
       <c r="E10">
-        <v>0.9913681579487189</v>
+        <v>1.056987645181501</v>
       </c>
       <c r="F10">
-        <v>0.996555582700148</v>
+        <v>1.065369228472952</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034273339122701</v>
+        <v>1.039827306375655</v>
       </c>
       <c r="J10">
-        <v>1.003134513791418</v>
+        <v>1.057242045399173</v>
       </c>
       <c r="K10">
-        <v>1.01165182848393</v>
+        <v>1.053307557728329</v>
       </c>
       <c r="L10">
-        <v>1.005895031767581</v>
+        <v>1.060359895997202</v>
       </c>
       <c r="M10">
-        <v>1.010987306903915</v>
+        <v>1.06871307475096</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9671685532126677</v>
+        <v>1.0499179329975</v>
       </c>
       <c r="D11">
-        <v>0.9921934524790803</v>
+        <v>1.049078360654492</v>
       </c>
       <c r="E11">
-        <v>0.9856565898746753</v>
+        <v>1.056013451549505</v>
       </c>
       <c r="F11">
-        <v>0.9905433994826072</v>
+        <v>1.064337962524581</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032246700933456</v>
+        <v>1.039561648224685</v>
       </c>
       <c r="J11">
-        <v>0.997973945539771</v>
+        <v>1.056380862518024</v>
       </c>
       <c r="K11">
-        <v>1.007264105911204</v>
+        <v>1.05259764818152</v>
       </c>
       <c r="L11">
-        <v>1.000854167777313</v>
+        <v>1.059507913780696</v>
       </c>
       <c r="M11">
-        <v>1.005645884437477</v>
+        <v>1.06780309656176</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9646337462842515</v>
+        <v>1.049511165769607</v>
       </c>
       <c r="D12">
-        <v>0.9902815264897646</v>
+        <v>1.048768716818578</v>
       </c>
       <c r="E12">
-        <v>0.9834898997471209</v>
+        <v>1.05565126492538</v>
       </c>
       <c r="F12">
-        <v>0.9882628417610729</v>
+        <v>1.063954586920673</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031475106748215</v>
+        <v>1.039462550214834</v>
       </c>
       <c r="J12">
-        <v>0.9960141298075365</v>
+        <v>1.056060524425825</v>
       </c>
       <c r="K12">
-        <v>1.00559731604599</v>
+        <v>1.05233346832482</v>
       </c>
       <c r="L12">
-        <v>0.9989403933609818</v>
+        <v>1.059191031299627</v>
       </c>
       <c r="M12">
-        <v>1.003618415591443</v>
+        <v>1.067464685007011</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9651800822080802</v>
+        <v>1.049598437319535</v>
       </c>
       <c r="D13">
-        <v>0.9906935291668421</v>
+        <v>1.048835154177492</v>
       </c>
       <c r="E13">
-        <v>0.9839567835623896</v>
+        <v>1.055728970175659</v>
       </c>
       <c r="F13">
-        <v>0.9887542544386927</v>
+        <v>1.064036836825271</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031641496554157</v>
+        <v>1.039483826167673</v>
       </c>
       <c r="J13">
-        <v>0.9964365336727814</v>
+        <v>1.056129258840631</v>
       </c>
       <c r="K13">
-        <v>1.005956583668667</v>
+        <v>1.052390158002105</v>
       </c>
       <c r="L13">
-        <v>0.9993528470355385</v>
+        <v>1.059259022745975</v>
       </c>
       <c r="M13">
-        <v>1.004055353698085</v>
+        <v>1.067537293922256</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9669601931625843</v>
+        <v>1.049884317857896</v>
       </c>
       <c r="D14">
-        <v>0.9920362568631508</v>
+        <v>1.049052773367732</v>
       </c>
       <c r="E14">
-        <v>0.9854784396191058</v>
+        <v>1.055983519833205</v>
       </c>
       <c r="F14">
-        <v>0.9903558833423646</v>
+        <v>1.064306279115253</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032183314802098</v>
+        <v>1.039553465354696</v>
       </c>
       <c r="J14">
-        <v>0.9978128488371806</v>
+        <v>1.056354392637225</v>
       </c>
       <c r="K14">
-        <v>1.007127105148952</v>
+        <v>1.052575820989136</v>
       </c>
       <c r="L14">
-        <v>1.000696843688496</v>
+        <v>1.059481728763213</v>
       </c>
       <c r="M14">
-        <v>1.005479205531304</v>
+        <v>1.067775131677464</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9680494399398191</v>
+        <v>1.050060404042584</v>
       </c>
       <c r="D15">
-        <v>0.992858101115172</v>
+        <v>1.049186804031039</v>
       </c>
       <c r="E15">
-        <v>0.98640985535404</v>
+        <v>1.056140312553987</v>
       </c>
       <c r="F15">
-        <v>0.9913362732597113</v>
+        <v>1.064472249016427</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032514601139102</v>
+        <v>1.039596316503418</v>
       </c>
       <c r="J15">
-        <v>0.9986550166170742</v>
+        <v>1.056493044235097</v>
       </c>
       <c r="K15">
-        <v>1.00784328729684</v>
+        <v>1.052690149205888</v>
       </c>
       <c r="L15">
-        <v>1.00151931311823</v>
+        <v>1.059618889581003</v>
       </c>
       <c r="M15">
-        <v>1.006350597537277</v>
+        <v>1.067921617395446</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9742787681630042</v>
+        <v>1.051084482688779</v>
       </c>
       <c r="D16">
-        <v>0.9975614251186541</v>
+        <v>1.049966137241743</v>
       </c>
       <c r="E16">
-        <v>0.9917411387046633</v>
+        <v>1.057052253787819</v>
       </c>
       <c r="F16">
-        <v>0.9969482183112494</v>
+        <v>1.065437626243748</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03440529785367</v>
+        <v>1.039844878412156</v>
       </c>
       <c r="J16">
-        <v>1.003471220575669</v>
+        <v>1.057299135783164</v>
       </c>
       <c r="K16">
-        <v>1.011938041148495</v>
+        <v>1.053354604101427</v>
       </c>
       <c r="L16">
-        <v>1.006224006366714</v>
+        <v>1.060416381085135</v>
       </c>
       <c r="M16">
-        <v>1.011335952617715</v>
+        <v>1.068773410718816</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9780935382901237</v>
+        <v>1.05172614882067</v>
       </c>
       <c r="D17">
-        <v>1.000444290865276</v>
+        <v>1.05045430935014</v>
       </c>
       <c r="E17">
-        <v>0.9950097609772846</v>
+        <v>1.057623717044401</v>
       </c>
       <c r="F17">
-        <v>1.000389218445742</v>
+        <v>1.066042627279511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035559596955651</v>
+        <v>1.040000048546624</v>
       </c>
       <c r="J17">
-        <v>1.006420381243633</v>
+        <v>1.057803972532112</v>
       </c>
       <c r="K17">
-        <v>1.014444534535356</v>
+        <v>1.053770538129589</v>
       </c>
       <c r="L17">
-        <v>1.009105856588402</v>
+        <v>1.060915890757344</v>
       </c>
       <c r="M17">
-        <v>1.014390426692805</v>
+        <v>1.069307006528784</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9802869468890173</v>
+        <v>1.052100169409515</v>
       </c>
       <c r="D18">
-        <v>1.002102720186482</v>
+        <v>1.050738808389613</v>
       </c>
       <c r="E18">
-        <v>0.9968904387967374</v>
+        <v>1.057956838424081</v>
       </c>
       <c r="F18">
-        <v>1.002369188998745</v>
+        <v>1.066395317623893</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036221973472665</v>
+        <v>1.040090288816416</v>
       </c>
       <c r="J18">
-        <v>1.008115947671383</v>
+        <v>1.058098148843666</v>
       </c>
       <c r="K18">
-        <v>1.015885256383992</v>
+        <v>1.054012837622916</v>
       </c>
       <c r="L18">
-        <v>1.01076306406255</v>
+        <v>1.061206984099435</v>
       </c>
       <c r="M18">
-        <v>1.016147152085866</v>
+        <v>1.069617990550154</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9810296235061685</v>
+        <v>1.052227658321592</v>
       </c>
       <c r="D19">
-        <v>1.002664390802017</v>
+        <v>1.050835774158416</v>
       </c>
       <c r="E19">
-        <v>0.9975274387741425</v>
+        <v>1.058070389990804</v>
       </c>
       <c r="F19">
-        <v>1.003039839214646</v>
+        <v>1.066515542896171</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036446022605073</v>
+        <v>1.040121013085403</v>
       </c>
       <c r="J19">
-        <v>1.008690029669914</v>
+        <v>1.058198407065318</v>
       </c>
       <c r="K19">
-        <v>1.016372993902438</v>
+        <v>1.054095403515765</v>
       </c>
       <c r="L19">
-        <v>1.011324215358218</v>
+        <v>1.061306195207369</v>
       </c>
       <c r="M19">
-        <v>1.016742043648853</v>
+        <v>1.069723985374168</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9776875639690205</v>
+        <v>1.051657330314201</v>
       </c>
       <c r="D20">
-        <v>1.000137401503457</v>
+        <v>1.050401958348365</v>
       </c>
       <c r="E20">
-        <v>0.9946617725877425</v>
+        <v>1.057562425562437</v>
       </c>
       <c r="F20">
-        <v>1.000022866625107</v>
+        <v>1.065977736796727</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035436890760284</v>
+        <v>1.039983427988203</v>
       </c>
       <c r="J20">
-        <v>1.006106539508772</v>
+        <v>1.057749838021015</v>
       </c>
       <c r="K20">
-        <v>1.014177835301707</v>
+        <v>1.053725944236867</v>
       </c>
       <c r="L20">
-        <v>1.00879914228095</v>
+        <v>1.060862325283221</v>
       </c>
       <c r="M20">
-        <v>1.014065313962818</v>
+        <v>1.069249783026547</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9664375765397515</v>
+        <v>1.049800144488591</v>
       </c>
       <c r="D21">
-        <v>0.9916420010816891</v>
+        <v>1.048988700725993</v>
       </c>
       <c r="E21">
-        <v>0.9850316350926375</v>
+        <v>1.055908570430239</v>
       </c>
       <c r="F21">
-        <v>0.9898855917106042</v>
+        <v>1.064226943925456</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032024296493236</v>
+        <v>1.039532969991311</v>
       </c>
       <c r="J21">
-        <v>0.9974087802570932</v>
+        <v>1.056288109021221</v>
       </c>
       <c r="K21">
-        <v>1.006783467469343</v>
+        <v>1.052521161396494</v>
       </c>
       <c r="L21">
-        <v>1.000302247174284</v>
+        <v>1.059416159014081</v>
       </c>
       <c r="M21">
-        <v>1.005061152163217</v>
+        <v>1.067705105647619</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.959039585553414</v>
+        <v>1.048630099317789</v>
       </c>
       <c r="D22">
-        <v>0.9860655190324351</v>
+        <v>1.048097878839509</v>
       </c>
       <c r="E22">
-        <v>0.9787128102760211</v>
+        <v>1.054866824953453</v>
       </c>
       <c r="F22">
-        <v>0.9832350070206595</v>
+        <v>1.063124308702749</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029768827048968</v>
+        <v>1.039247313202295</v>
       </c>
       <c r="J22">
-        <v>0.9916891196970646</v>
+        <v>1.055366416507998</v>
       </c>
       <c r="K22">
-        <v>1.001918168728036</v>
+        <v>1.051760840205648</v>
       </c>
       <c r="L22">
-        <v>0.9947181036090393</v>
+        <v>1.058504471856484</v>
       </c>
       <c r="M22">
-        <v>0.9991460617735022</v>
+        <v>1.066731556860409</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.962994265920959</v>
+        <v>1.049250590110704</v>
       </c>
       <c r="D23">
-        <v>0.9890454353531188</v>
+        <v>1.048570336502217</v>
       </c>
       <c r="E23">
-        <v>0.9820892108974233</v>
+        <v>1.055419257460372</v>
       </c>
       <c r="F23">
-        <v>0.9867885889236873</v>
+        <v>1.063709014617792</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030975520129017</v>
+        <v>1.039398977291677</v>
       </c>
       <c r="J23">
-        <v>0.9947465648431707</v>
+        <v>1.055855277080088</v>
       </c>
       <c r="K23">
-        <v>1.004519148319626</v>
+        <v>1.052164171373781</v>
       </c>
       <c r="L23">
-        <v>0.9977027752778773</v>
+        <v>1.058988007396317</v>
       </c>
       <c r="M23">
-        <v>1.0023073903767</v>
+        <v>1.067247879350655</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9778711037882404</v>
+        <v>1.051688427215024</v>
       </c>
       <c r="D24">
-        <v>1.000276142692593</v>
+        <v>1.050425614265179</v>
       </c>
       <c r="E24">
-        <v>0.9948190931354111</v>
+        <v>1.057590121173728</v>
       </c>
       <c r="F24">
-        <v>1.000188488670105</v>
+        <v>1.066007058620116</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035492369991893</v>
+        <v>1.039990938930814</v>
       </c>
       <c r="J24">
-        <v>1.006248426886718</v>
+        <v>1.057774299961525</v>
       </c>
       <c r="K24">
-        <v>1.014298410690567</v>
+        <v>1.053746095248628</v>
       </c>
       <c r="L24">
-        <v>1.008937806304959</v>
+        <v>1.060886530025574</v>
       </c>
       <c r="M24">
-        <v>1.014212295044445</v>
+        <v>1.06927564064713</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9939051146941802</v>
+        <v>1.054507542535221</v>
       </c>
       <c r="D25">
-        <v>1.01241181061903</v>
+        <v>1.052569037721631</v>
       </c>
       <c r="E25">
-        <v>1.00858767112627</v>
+        <v>1.060101340116731</v>
       </c>
       <c r="F25">
-        <v>1.014686003066324</v>
+        <v>1.068666137540185</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040309993806139</v>
+        <v>1.040667381931662</v>
       </c>
       <c r="J25">
-        <v>1.018639351534628</v>
+        <v>1.059990016044024</v>
       </c>
       <c r="K25">
-        <v>1.024820456918563</v>
+        <v>1.055569782746296</v>
       </c>
       <c r="L25">
-        <v>1.021054121395939</v>
+        <v>1.063079405866312</v>
       </c>
       <c r="M25">
-        <v>1.027060536561206</v>
+        <v>1.071618838030408</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_145/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_145/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.056748553031213</v>
+        <v>1.005868436103728</v>
       </c>
       <c r="D2">
-        <v>1.054271244083026</v>
+        <v>1.021482909778848</v>
       </c>
       <c r="E2">
-        <v>1.062098227298203</v>
+        <v>1.018892171457461</v>
       </c>
       <c r="F2">
-        <v>1.07078119812752</v>
+        <v>1.025539616726787</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041198566114515</v>
+        <v>1.043859990703645</v>
       </c>
       <c r="J2">
-        <v>1.061748569773783</v>
+        <v>1.027875028893311</v>
       </c>
       <c r="K2">
-        <v>1.057014914388477</v>
+        <v>1.032650851726725</v>
       </c>
       <c r="L2">
-        <v>1.064820496232768</v>
+        <v>1.030094436051906</v>
       </c>
       <c r="M2">
-        <v>1.073480121093358</v>
+        <v>1.036654251060444</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058371590284791</v>
+        <v>1.014143372030927</v>
       </c>
       <c r="D3">
-        <v>1.055503062703236</v>
+        <v>1.027763268246125</v>
       </c>
       <c r="E3">
-        <v>1.063544809407952</v>
+        <v>1.026034966323855</v>
       </c>
       <c r="F3">
-        <v>1.072313733926124</v>
+        <v>1.033065188697833</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041579471626974</v>
+        <v>1.046287981890603</v>
       </c>
       <c r="J3">
-        <v>1.063020560694667</v>
+        <v>1.034255761991824</v>
       </c>
       <c r="K3">
-        <v>1.058058873017663</v>
+        <v>1.038052821499721</v>
       </c>
       <c r="L3">
-        <v>1.066080238859819</v>
+        <v>1.036345219125846</v>
       </c>
       <c r="M3">
-        <v>1.074827314628468</v>
+        <v>1.043291777059267</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059419962158909</v>
+        <v>1.019326212007096</v>
       </c>
       <c r="D4">
-        <v>1.056298266789985</v>
+        <v>1.031698591475281</v>
       </c>
       <c r="E4">
-        <v>1.064479359051929</v>
+        <v>1.030514944833464</v>
       </c>
       <c r="F4">
-        <v>1.073303973633466</v>
+        <v>1.037786264937222</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041823749525428</v>
+        <v>1.047795451855351</v>
       </c>
       <c r="J4">
-        <v>1.063841422877486</v>
+        <v>1.038248146067285</v>
       </c>
       <c r="K4">
-        <v>1.058731960273043</v>
+        <v>1.041428922247098</v>
       </c>
       <c r="L4">
-        <v>1.066893373492231</v>
+        <v>1.040258519193358</v>
       </c>
       <c r="M4">
-        <v>1.07569712201977</v>
+        <v>1.047449068477464</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059860266817199</v>
+        <v>1.021466501191021</v>
       </c>
       <c r="D5">
-        <v>1.056632130791777</v>
+        <v>1.033323993394546</v>
       </c>
       <c r="E5">
-        <v>1.064871896053509</v>
+        <v>1.032366368542112</v>
       </c>
       <c r="F5">
-        <v>1.073719940487427</v>
+        <v>1.039737574552781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041925921480718</v>
+        <v>1.048414716503023</v>
       </c>
       <c r="J5">
-        <v>1.064185994068419</v>
+        <v>1.039895774106377</v>
       </c>
       <c r="K5">
-        <v>1.059014352150663</v>
+        <v>1.042821251350177</v>
       </c>
       <c r="L5">
-        <v>1.067234743140964</v>
+        <v>1.041874031318006</v>
       </c>
       <c r="M5">
-        <v>1.076062337903094</v>
+        <v>1.049165752605812</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059934170930517</v>
+        <v>1.021823671528141</v>
       </c>
       <c r="D6">
-        <v>1.05668816242983</v>
+        <v>1.033595252518266</v>
       </c>
       <c r="E6">
-        <v>1.064937784587705</v>
+        <v>1.032675411667416</v>
       </c>
       <c r="F6">
-        <v>1.073789764050707</v>
+        <v>1.040063305539373</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04194304603983</v>
+        <v>1.048517865471504</v>
       </c>
       <c r="J6">
-        <v>1.064243818858654</v>
+        <v>1.040170665179188</v>
       </c>
       <c r="K6">
-        <v>1.05906173351047</v>
+        <v>1.04305349063206</v>
       </c>
       <c r="L6">
-        <v>1.067292033133768</v>
+        <v>1.042143594497472</v>
       </c>
       <c r="M6">
-        <v>1.076123633026364</v>
+        <v>1.049452223433413</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.059425847210402</v>
+        <v>1.01935495909734</v>
       </c>
       <c r="D7">
-        <v>1.056302729615854</v>
+        <v>1.031720421956574</v>
       </c>
       <c r="E7">
-        <v>1.064484605505458</v>
+        <v>1.030539806704428</v>
       </c>
       <c r="F7">
-        <v>1.073309533087467</v>
+        <v>1.037812467139345</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041825116801328</v>
+        <v>1.047803782436835</v>
       </c>
       <c r="J7">
-        <v>1.063846029084298</v>
+        <v>1.03827028030261</v>
       </c>
       <c r="K7">
-        <v>1.058735735853815</v>
+        <v>1.04144763065427</v>
       </c>
       <c r="L7">
-        <v>1.066897936735087</v>
+        <v>1.040280219933271</v>
       </c>
       <c r="M7">
-        <v>1.075702003814111</v>
+        <v>1.04747212647072</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05729745348192</v>
+        <v>1.008702103256576</v>
       </c>
       <c r="D8">
-        <v>1.054687933129256</v>
+        <v>1.023633097772675</v>
       </c>
       <c r="E8">
-        <v>1.062587418960485</v>
+        <v>1.021336760381498</v>
       </c>
       <c r="F8">
-        <v>1.071299423544587</v>
+        <v>1.028114996568269</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041327750677337</v>
+        <v>1.044694185489086</v>
       </c>
       <c r="J8">
-        <v>1.062178905413879</v>
+        <v>1.030060852605907</v>
       </c>
       <c r="K8">
-        <v>1.057368230733854</v>
+        <v>1.034502183552172</v>
       </c>
       <c r="L8">
-        <v>1.065246651367257</v>
+        <v>1.032235264507694</v>
       </c>
       <c r="M8">
-        <v>1.073935813056145</v>
+        <v>1.038927137284158</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.053532394482878</v>
+        <v>0.9884897305013508</v>
       </c>
       <c r="D9">
-        <v>1.051827871752655</v>
+        <v>1.008309898249798</v>
       </c>
       <c r="E9">
-        <v>1.059232594492013</v>
+        <v>1.003931934096343</v>
       </c>
       <c r="F9">
-        <v>1.067746147879224</v>
+        <v>1.009783222855636</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040434409813154</v>
+        <v>1.038689734472693</v>
       </c>
       <c r="J9">
-        <v>1.05922401904455</v>
+        <v>1.014455597628722</v>
       </c>
       <c r="K9">
-        <v>1.054939666980677</v>
+        <v>1.021269576689054</v>
       </c>
       <c r="L9">
-        <v>1.062321201661764</v>
+        <v>1.016961538906767</v>
       </c>
       <c r="M9">
-        <v>1.070808528432474</v>
+        <v>1.022719543459947</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051011933803925</v>
+        <v>0.9738432535395233</v>
       </c>
       <c r="D10">
-        <v>1.049910935958148</v>
+        <v>0.9972324241589052</v>
       </c>
       <c r="E10">
-        <v>1.056987645181501</v>
+        <v>0.9913681579487176</v>
       </c>
       <c r="F10">
-        <v>1.065369228472952</v>
+        <v>0.9965555827001468</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039827306375655</v>
+        <v>1.034273339122701</v>
       </c>
       <c r="J10">
-        <v>1.057242045399173</v>
+        <v>1.003134513791417</v>
       </c>
       <c r="K10">
-        <v>1.053307557728329</v>
+        <v>1.011651828483929</v>
       </c>
       <c r="L10">
-        <v>1.060359895997202</v>
+        <v>1.00589503176758</v>
       </c>
       <c r="M10">
-        <v>1.06871307475096</v>
+        <v>1.010987306903914</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.0499179329975</v>
+        <v>0.967168553212668</v>
       </c>
       <c r="D11">
-        <v>1.049078360654492</v>
+        <v>0.9921934524790808</v>
       </c>
       <c r="E11">
-        <v>1.056013451549505</v>
+        <v>0.9856565898746756</v>
       </c>
       <c r="F11">
-        <v>1.064337962524581</v>
+        <v>0.9905433994826073</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039561648224685</v>
+        <v>1.032246700933456</v>
       </c>
       <c r="J11">
-        <v>1.056380862518024</v>
+        <v>0.9979739455397713</v>
       </c>
       <c r="K11">
-        <v>1.05259764818152</v>
+        <v>1.007264105911205</v>
       </c>
       <c r="L11">
-        <v>1.059507913780696</v>
+        <v>1.000854167777314</v>
       </c>
       <c r="M11">
-        <v>1.06780309656176</v>
+        <v>1.005645884437477</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049511165769607</v>
+        <v>0.9646337462842505</v>
       </c>
       <c r="D12">
-        <v>1.048768716818578</v>
+        <v>0.9902815264897636</v>
       </c>
       <c r="E12">
-        <v>1.05565126492538</v>
+        <v>0.9834898997471199</v>
       </c>
       <c r="F12">
-        <v>1.063954586920673</v>
+        <v>0.9882628417610717</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039462550214834</v>
+        <v>1.031475106748215</v>
       </c>
       <c r="J12">
-        <v>1.056060524425825</v>
+        <v>0.9960141298075356</v>
       </c>
       <c r="K12">
-        <v>1.05233346832482</v>
+        <v>1.005597316045989</v>
       </c>
       <c r="L12">
-        <v>1.059191031299627</v>
+        <v>0.9989403933609811</v>
       </c>
       <c r="M12">
-        <v>1.067464685007011</v>
+        <v>1.003618415591442</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049598437319535</v>
+        <v>0.9651800822080768</v>
       </c>
       <c r="D13">
-        <v>1.048835154177492</v>
+        <v>0.9906935291668393</v>
       </c>
       <c r="E13">
-        <v>1.055728970175659</v>
+        <v>0.9839567835623865</v>
       </c>
       <c r="F13">
-        <v>1.064036836825271</v>
+        <v>0.98875425443869</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039483826167673</v>
+        <v>1.031641496554156</v>
       </c>
       <c r="J13">
-        <v>1.056129258840631</v>
+        <v>0.9964365336727785</v>
       </c>
       <c r="K13">
-        <v>1.052390158002105</v>
+        <v>1.005956583668664</v>
       </c>
       <c r="L13">
-        <v>1.059259022745975</v>
+        <v>0.9993528470355355</v>
       </c>
       <c r="M13">
-        <v>1.067537293922256</v>
+        <v>1.004055353698082</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049884317857896</v>
+        <v>0.9669601931625857</v>
       </c>
       <c r="D14">
-        <v>1.049052773367732</v>
+        <v>0.9920362568631523</v>
       </c>
       <c r="E14">
-        <v>1.055983519833205</v>
+        <v>0.9854784396191071</v>
       </c>
       <c r="F14">
-        <v>1.064306279115253</v>
+        <v>0.9903558833423662</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039553465354696</v>
+        <v>1.032183314802099</v>
       </c>
       <c r="J14">
-        <v>1.056354392637225</v>
+        <v>0.9978128488371822</v>
       </c>
       <c r="K14">
-        <v>1.052575820989136</v>
+        <v>1.007127105148954</v>
       </c>
       <c r="L14">
-        <v>1.059481728763213</v>
+        <v>1.000696843688498</v>
       </c>
       <c r="M14">
-        <v>1.067775131677464</v>
+        <v>1.005479205531306</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050060404042584</v>
+        <v>0.9680494399398187</v>
       </c>
       <c r="D15">
-        <v>1.049186804031039</v>
+        <v>0.992858101115172</v>
       </c>
       <c r="E15">
-        <v>1.056140312553987</v>
+        <v>0.9864098553540398</v>
       </c>
       <c r="F15">
-        <v>1.064472249016427</v>
+        <v>0.9913362732597111</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039596316503418</v>
+        <v>1.032514601139102</v>
       </c>
       <c r="J15">
-        <v>1.056493044235097</v>
+        <v>0.9986550166170739</v>
       </c>
       <c r="K15">
-        <v>1.052690149205888</v>
+        <v>1.007843287296841</v>
       </c>
       <c r="L15">
-        <v>1.059618889581003</v>
+        <v>1.00151931311823</v>
       </c>
       <c r="M15">
-        <v>1.067921617395446</v>
+        <v>1.006350597537277</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051084482688779</v>
+        <v>0.9742787681630047</v>
       </c>
       <c r="D16">
-        <v>1.049966137241743</v>
+        <v>0.9975614251186543</v>
       </c>
       <c r="E16">
-        <v>1.057052253787819</v>
+        <v>0.9917411387046641</v>
       </c>
       <c r="F16">
-        <v>1.065437626243748</v>
+        <v>0.9969482183112501</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039844878412156</v>
+        <v>1.03440529785367</v>
       </c>
       <c r="J16">
-        <v>1.057299135783164</v>
+        <v>1.00347122057567</v>
       </c>
       <c r="K16">
-        <v>1.053354604101427</v>
+        <v>1.011938041148496</v>
       </c>
       <c r="L16">
-        <v>1.060416381085135</v>
+        <v>1.006224006366714</v>
       </c>
       <c r="M16">
-        <v>1.068773410718816</v>
+        <v>1.011335952617716</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05172614882067</v>
+        <v>0.9780935382901244</v>
       </c>
       <c r="D17">
-        <v>1.05045430935014</v>
+        <v>1.000444290865276</v>
       </c>
       <c r="E17">
-        <v>1.057623717044401</v>
+        <v>0.995009760977285</v>
       </c>
       <c r="F17">
-        <v>1.066042627279511</v>
+        <v>1.000389218445742</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040000048546624</v>
+        <v>1.035559596955651</v>
       </c>
       <c r="J17">
-        <v>1.057803972532112</v>
+        <v>1.006420381243633</v>
       </c>
       <c r="K17">
-        <v>1.053770538129589</v>
+        <v>1.014444534535357</v>
       </c>
       <c r="L17">
-        <v>1.060915890757344</v>
+        <v>1.009105856588403</v>
       </c>
       <c r="M17">
-        <v>1.069307006528784</v>
+        <v>1.014390426692805</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.052100169409515</v>
+        <v>0.9802869468890175</v>
       </c>
       <c r="D18">
-        <v>1.050738808389613</v>
+        <v>1.002102720186482</v>
       </c>
       <c r="E18">
-        <v>1.057956838424081</v>
+        <v>0.9968904387967372</v>
       </c>
       <c r="F18">
-        <v>1.066395317623893</v>
+        <v>1.002369188998744</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040090288816416</v>
+        <v>1.036221973472665</v>
       </c>
       <c r="J18">
-        <v>1.058098148843666</v>
+        <v>1.008115947671383</v>
       </c>
       <c r="K18">
-        <v>1.054012837622916</v>
+        <v>1.015885256383993</v>
       </c>
       <c r="L18">
-        <v>1.061206984099435</v>
+        <v>1.01076306406255</v>
       </c>
       <c r="M18">
-        <v>1.069617990550154</v>
+        <v>1.016147152085866</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.052227658321592</v>
+        <v>0.9810296235061684</v>
       </c>
       <c r="D19">
-        <v>1.050835774158416</v>
+        <v>1.002664390802018</v>
       </c>
       <c r="E19">
-        <v>1.058070389990804</v>
+        <v>0.9975274387741425</v>
       </c>
       <c r="F19">
-        <v>1.066515542896171</v>
+        <v>1.003039839214646</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040121013085403</v>
+        <v>1.036446022605073</v>
       </c>
       <c r="J19">
-        <v>1.058198407065318</v>
+        <v>1.008690029669914</v>
       </c>
       <c r="K19">
-        <v>1.054095403515765</v>
+        <v>1.016372993902438</v>
       </c>
       <c r="L19">
-        <v>1.061306195207369</v>
+        <v>1.011324215358218</v>
       </c>
       <c r="M19">
-        <v>1.069723985374168</v>
+        <v>1.016742043648853</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051657330314201</v>
+        <v>0.9776875639690202</v>
       </c>
       <c r="D20">
-        <v>1.050401958348365</v>
+        <v>1.000137401503457</v>
       </c>
       <c r="E20">
-        <v>1.057562425562437</v>
+        <v>0.9946617725877425</v>
       </c>
       <c r="F20">
-        <v>1.065977736796727</v>
+        <v>1.000022866625107</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039983427988203</v>
+        <v>1.035436890760284</v>
       </c>
       <c r="J20">
-        <v>1.057749838021015</v>
+        <v>1.006106539508772</v>
       </c>
       <c r="K20">
-        <v>1.053725944236867</v>
+        <v>1.014177835301706</v>
       </c>
       <c r="L20">
-        <v>1.060862325283221</v>
+        <v>1.00879914228095</v>
       </c>
       <c r="M20">
-        <v>1.069249783026547</v>
+        <v>1.014065313962818</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049800144488591</v>
+        <v>0.9664375765397518</v>
       </c>
       <c r="D21">
-        <v>1.048988700725993</v>
+        <v>0.9916420010816891</v>
       </c>
       <c r="E21">
-        <v>1.055908570430239</v>
+        <v>0.9850316350926379</v>
       </c>
       <c r="F21">
-        <v>1.064226943925456</v>
+        <v>0.9898855917106048</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039532969991311</v>
+        <v>1.032024296493236</v>
       </c>
       <c r="J21">
-        <v>1.056288109021221</v>
+        <v>0.9974087802570933</v>
       </c>
       <c r="K21">
-        <v>1.052521161396494</v>
+        <v>1.006783467469343</v>
       </c>
       <c r="L21">
-        <v>1.059416159014081</v>
+        <v>1.000302247174284</v>
       </c>
       <c r="M21">
-        <v>1.067705105647619</v>
+        <v>1.005061152163218</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048630099317789</v>
+        <v>0.9590395855534148</v>
       </c>
       <c r="D22">
-        <v>1.048097878839509</v>
+        <v>0.9860655190324359</v>
       </c>
       <c r="E22">
-        <v>1.054866824953453</v>
+        <v>0.9787128102760219</v>
       </c>
       <c r="F22">
-        <v>1.063124308702749</v>
+        <v>0.9832350070206602</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039247313202295</v>
+        <v>1.029768827048968</v>
       </c>
       <c r="J22">
-        <v>1.055366416507998</v>
+        <v>0.9916891196970659</v>
       </c>
       <c r="K22">
-        <v>1.051760840205648</v>
+        <v>1.001918168728036</v>
       </c>
       <c r="L22">
-        <v>1.058504471856484</v>
+        <v>0.9947181036090401</v>
       </c>
       <c r="M22">
-        <v>1.066731556860409</v>
+        <v>0.9991460617735032</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049250590110704</v>
+        <v>0.9629942659209592</v>
       </c>
       <c r="D23">
-        <v>1.048570336502217</v>
+        <v>0.989045435353119</v>
       </c>
       <c r="E23">
-        <v>1.055419257460372</v>
+        <v>0.9820892108974233</v>
       </c>
       <c r="F23">
-        <v>1.063709014617792</v>
+        <v>0.9867885889236869</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039398977291677</v>
+        <v>1.030975520129017</v>
       </c>
       <c r="J23">
-        <v>1.055855277080088</v>
+        <v>0.9947465648431708</v>
       </c>
       <c r="K23">
-        <v>1.052164171373781</v>
+        <v>1.004519148319626</v>
       </c>
       <c r="L23">
-        <v>1.058988007396317</v>
+        <v>0.9977027752778773</v>
       </c>
       <c r="M23">
-        <v>1.067247879350655</v>
+        <v>1.002307390376699</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051688427215024</v>
+        <v>0.977871103788241</v>
       </c>
       <c r="D24">
-        <v>1.050425614265179</v>
+        <v>1.000276142692594</v>
       </c>
       <c r="E24">
-        <v>1.057590121173728</v>
+        <v>0.9948190931354115</v>
       </c>
       <c r="F24">
-        <v>1.066007058620116</v>
+        <v>1.000188488670106</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039990938930814</v>
+        <v>1.035492369991893</v>
       </c>
       <c r="J24">
-        <v>1.057774299961525</v>
+        <v>1.006248426886718</v>
       </c>
       <c r="K24">
-        <v>1.053746095248628</v>
+        <v>1.014298410690568</v>
       </c>
       <c r="L24">
-        <v>1.060886530025574</v>
+        <v>1.008937806304959</v>
       </c>
       <c r="M24">
-        <v>1.06927564064713</v>
+        <v>1.014212295044445</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.054507542535221</v>
+        <v>0.9939051146941796</v>
       </c>
       <c r="D25">
-        <v>1.052569037721631</v>
+        <v>1.012411810619029</v>
       </c>
       <c r="E25">
-        <v>1.060101340116731</v>
+        <v>1.008587671126269</v>
       </c>
       <c r="F25">
-        <v>1.068666137540185</v>
+        <v>1.014686003066323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040667381931662</v>
+        <v>1.040309993806139</v>
       </c>
       <c r="J25">
-        <v>1.059990016044024</v>
+        <v>1.018639351534628</v>
       </c>
       <c r="K25">
-        <v>1.055569782746296</v>
+        <v>1.024820456918562</v>
       </c>
       <c r="L25">
-        <v>1.063079405866312</v>
+        <v>1.021054121395939</v>
       </c>
       <c r="M25">
-        <v>1.071618838030408</v>
+        <v>1.027060536561205</v>
       </c>
     </row>
   </sheetData>
